--- a/PIID/OT.xlsx
+++ b/PIID/OT.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>OT</t>
   </si>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,26 +337,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -550,7 +537,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -705,19 +692,31 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,40 +743,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,7 +771,49 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1214,7 +1240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1232,7 +1258,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1247,25 +1273,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1312,23 +1338,23 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="62">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="63" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(LEN(E4)&gt;5,IF(LEN(K4&amp;L4&amp;M4)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="55" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1355,19 +1381,19 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="67"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="62"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1392,19 +1418,19 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="67"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8" t="str">
@@ -1427,19 +1453,19 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="67"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8" t="str">
@@ -1462,19 +1488,19 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="67"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="59"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8" t="str">
@@ -1497,19 +1523,19 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="67"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="str">
@@ -1532,19 +1558,19 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="67"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8" t="str">
@@ -1567,19 +1593,19 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="67"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8" t="str">
@@ -1602,19 +1628,19 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="67"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8" t="str">
@@ -1637,19 +1663,19 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="67"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8" t="str">
@@ -1672,19 +1698,19 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="67"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="str">
@@ -1707,19 +1733,19 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="67"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8" t="str">
@@ -1742,19 +1768,19 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="67"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="8" t="str">
@@ -1777,19 +1803,19 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="67"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8" t="str">
@@ -1812,19 +1838,19 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="67"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="59"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="8" t="str">
@@ -1847,27 +1873,27 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="67"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="62">
         <v>2.1</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="63" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="59" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1894,21 +1920,21 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="67"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="59" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -1935,21 +1961,21 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="67"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -1976,19 +2002,19 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="67"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="59"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="8" t="str">
@@ -2011,19 +2037,19 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="67"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8" t="str">
@@ -2046,19 +2072,19 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="67"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="62"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="7"/>
       <c r="H24" s="4"/>
       <c r="I24" s="8" t="str">
@@ -2081,19 +2107,19 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="67"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="62"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="59"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8" t="str">
@@ -2116,19 +2142,19 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="67"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="62"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8" t="str">
@@ -2151,19 +2177,19 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="67"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="62"/>
     </row>
     <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="10"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8" t="str">
@@ -2186,19 +2212,19 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="67"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="62"/>
     </row>
     <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="59"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="10"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8" t="str">
@@ -2221,19 +2247,19 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="67"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="62"/>
     </row>
     <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="59"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="10"/>
       <c r="H29" s="7"/>
       <c r="I29" s="8" t="str">
@@ -2256,19 +2282,19 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="67"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="62"/>
     </row>
     <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="71"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="10"/>
       <c r="H30" s="7"/>
       <c r="I30" s="8" t="str">
@@ -2291,19 +2317,19 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="67"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="62"/>
     </row>
     <row r="31" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="59"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="10"/>
       <c r="H31" s="7"/>
       <c r="I31" s="8" t="str">
@@ -2326,19 +2352,19 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="67"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="62"/>
     </row>
     <row r="32" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="10"/>
       <c r="H32" s="7"/>
       <c r="I32" s="8" t="str">
@@ -2361,19 +2387,19 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="67"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="62"/>
     </row>
     <row r="33" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="59"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="10"/>
       <c r="H33" s="7"/>
       <c r="I33" s="8" t="str">
@@ -2396,25 +2422,25 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="67"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="62"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="59" t="s">
         <v>38</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -2441,21 +2467,21 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="67"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="62"/>
     </row>
     <row r="35" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="59" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="10" t="s">
@@ -2482,19 +2508,19 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="67"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="62"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="10" t="s">
         <v>29</v>
       </c>
@@ -2519,19 +2545,19 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="67"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="62"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="59"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="10"/>
       <c r="H37" s="4"/>
       <c r="I37" s="8" t="str">
@@ -2554,19 +2580,19 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="67"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="62"/>
     </row>
     <row r="38" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="10"/>
       <c r="H38" s="4"/>
       <c r="I38" s="8" t="str">
@@ -2589,19 +2615,19 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="67"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="62"/>
     </row>
     <row r="39" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="10"/>
       <c r="H39" s="4"/>
       <c r="I39" s="8" t="str">
@@ -2624,19 +2650,19 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="67"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="62"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="71"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="10"/>
       <c r="H40" s="7"/>
       <c r="I40" s="8" t="str">
@@ -2659,19 +2685,19 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="67"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="71"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="10"/>
       <c r="H41" s="7"/>
       <c r="I41" s="8" t="str">
@@ -2694,19 +2720,19 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="67"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="62"/>
     </row>
     <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="71"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="10"/>
       <c r="H42" s="7"/>
       <c r="I42" s="8" t="str">
@@ -2729,19 +2755,19 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="67"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="62"/>
     </row>
     <row r="43" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="10"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8" t="str">
@@ -2764,19 +2790,19 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="67"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="62"/>
     </row>
     <row r="44" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="71"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="10"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8" t="str">
@@ -2799,19 +2825,19 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="67"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="62"/>
     </row>
     <row r="45" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="59"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="71"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="10"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8" t="str">
@@ -2834,19 +2860,19 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="67"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="62"/>
     </row>
     <row r="46" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="59"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="10"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8" t="str">
@@ -2869,19 +2895,19 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="67"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="62"/>
     </row>
     <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="59"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="10"/>
       <c r="H47" s="7"/>
       <c r="I47" s="8" t="str">
@@ -2904,19 +2930,19 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="67"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="62"/>
     </row>
     <row r="48" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="59"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="71"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="10"/>
       <c r="H48" s="7"/>
       <c r="I48" s="8" t="str">
@@ -2939,27 +2965,27 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="67"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="62"/>
     </row>
     <row r="49" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="67">
+      <c r="B49" s="62">
         <v>3.1</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E49" s="77" t="s">
+      <c r="E49" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="73" t="s">
+      <c r="F49" s="59" t="s">
         <v>41</v>
       </c>
       <c r="G49" s="10" t="s">
@@ -2986,21 +3012,21 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="67"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="62"/>
     </row>
     <row r="50" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="59"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="59" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="10"/>
@@ -3025,21 +3051,21 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="67"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="62"/>
     </row>
     <row r="51" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="59"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E51" s="77" t="s">
+      <c r="E51" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="73" t="s">
+      <c r="F51" s="59" t="s">
         <v>45</v>
       </c>
       <c r="G51" s="10"/>
@@ -3064,19 +3090,19 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="67"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="62"/>
     </row>
     <row r="52" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="59"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="71"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="10"/>
       <c r="H52" s="7"/>
       <c r="I52" s="8" t="str">
@@ -3099,19 +3125,19 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="67"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="62"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="59"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="71"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="10"/>
       <c r="H53" s="7"/>
       <c r="I53" s="8" t="str">
@@ -3134,19 +3160,19 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="67"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="62"/>
     </row>
     <row r="54" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="71"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="10"/>
       <c r="H54" s="7"/>
       <c r="I54" s="8" t="str">
@@ -3169,19 +3195,19 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="67"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="62"/>
     </row>
     <row r="55" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="59"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E55" s="70"/>
-      <c r="F55" s="71"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="10"/>
       <c r="H55" s="7"/>
       <c r="I55" s="8" t="str">
@@ -3204,19 +3230,19 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="67"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="62"/>
     </row>
     <row r="56" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="59"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="10"/>
       <c r="H56" s="7"/>
       <c r="I56" s="8" t="str">
@@ -3239,19 +3265,19 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="67"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="62"/>
     </row>
     <row r="57" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="59"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E57" s="70"/>
-      <c r="F57" s="71"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="10"/>
       <c r="H57" s="7"/>
       <c r="I57" s="8" t="str">
@@ -3274,19 +3300,19 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="67"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="62"/>
     </row>
     <row r="58" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="59"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E58" s="70"/>
-      <c r="F58" s="71"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="10"/>
       <c r="H58" s="7"/>
       <c r="I58" s="8" t="str">
@@ -3309,19 +3335,19 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="67"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="62"/>
     </row>
     <row r="59" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="59"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="71"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="10"/>
       <c r="H59" s="7"/>
       <c r="I59" s="8" t="str">
@@ -3344,19 +3370,19 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="67"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="62"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="59"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E60" s="70"/>
-      <c r="F60" s="71"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="10"/>
       <c r="H60" s="7"/>
       <c r="I60" s="8" t="str">
@@ -3379,19 +3405,19 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="67"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="62"/>
     </row>
     <row r="61" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E61" s="70"/>
-      <c r="F61" s="71"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="10"/>
       <c r="H61" s="7"/>
       <c r="I61" s="8" t="str">
@@ -3414,19 +3440,19 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="67"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="62"/>
     </row>
     <row r="62" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="67"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="59"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E62" s="70"/>
-      <c r="F62" s="71"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="10"/>
       <c r="H62" s="7"/>
       <c r="I62" s="8" t="str">
@@ -3449,19 +3475,19 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="67"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="62"/>
     </row>
     <row r="63" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="59"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E63" s="70"/>
-      <c r="F63" s="71"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="10"/>
       <c r="H63" s="7"/>
       <c r="I63" s="8" t="str">
@@ -3484,25 +3510,25 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="67"/>
+      <c r="Q63" s="66"/>
+      <c r="R63" s="62"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67">
+      <c r="A64" s="62"/>
+      <c r="B64" s="62">
         <v>3.2</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="71" t="s">
+      <c r="F64" s="57" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="10"/>
@@ -3527,19 +3553,19 @@
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="67"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="62"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="59"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E65" s="70"/>
-      <c r="F65" s="71"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="10" t="s">
         <v>29</v>
       </c>
@@ -3564,19 +3590,19 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="67"/>
+      <c r="Q65" s="65"/>
+      <c r="R65" s="62"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="59"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="71"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="10"/>
       <c r="H66" s="4"/>
       <c r="I66" s="8" t="str">
@@ -3599,19 +3625,19 @@
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="67"/>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="62"/>
     </row>
     <row r="67" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="59"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E67" s="70"/>
-      <c r="F67" s="71"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="10"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8" t="str">
@@ -3634,19 +3660,19 @@
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="67"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="62"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="59"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E68" s="70"/>
-      <c r="F68" s="71"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="10"/>
       <c r="H68" s="4"/>
       <c r="I68" s="8" t="str">
@@ -3669,19 +3695,19 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="67"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="62"/>
     </row>
     <row r="69" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="59"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="4" t="str">
         <f t="shared" ref="D69:D132" si="4">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E69" s="70"/>
-      <c r="F69" s="71"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="10"/>
       <c r="H69" s="7"/>
       <c r="I69" s="8" t="str">
@@ -3704,19 +3730,19 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="67"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="62"/>
     </row>
     <row r="70" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="59"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="71"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="10"/>
       <c r="H70" s="7"/>
       <c r="I70" s="8" t="str">
@@ -3739,19 +3765,19 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="67"/>
+      <c r="Q70" s="65"/>
+      <c r="R70" s="62"/>
     </row>
     <row r="71" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="59"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E71" s="70"/>
-      <c r="F71" s="71"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="10"/>
       <c r="H71" s="7"/>
       <c r="I71" s="8" t="str">
@@ -3774,19 +3800,19 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="67"/>
+      <c r="Q71" s="65"/>
+      <c r="R71" s="62"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="59"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E72" s="70"/>
-      <c r="F72" s="71"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="10"/>
       <c r="H72" s="7"/>
       <c r="I72" s="8" t="str">
@@ -3809,19 +3835,19 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="67"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="62"/>
     </row>
     <row r="73" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="67"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="59"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E73" s="70"/>
-      <c r="F73" s="71"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="57"/>
       <c r="G73" s="10"/>
       <c r="H73" s="7"/>
       <c r="I73" s="8" t="str">
@@ -3844,19 +3870,19 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="67"/>
+      <c r="Q73" s="65"/>
+      <c r="R73" s="62"/>
     </row>
     <row r="74" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="67"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="59"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E74" s="70"/>
-      <c r="F74" s="71"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="10"/>
       <c r="H74" s="7"/>
       <c r="I74" s="8" t="str">
@@ -3879,19 +3905,19 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="67"/>
+      <c r="Q74" s="65"/>
+      <c r="R74" s="62"/>
     </row>
     <row r="75" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="67"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="59"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
       <c r="D75" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E75" s="70"/>
-      <c r="F75" s="71"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="10"/>
       <c r="H75" s="7"/>
       <c r="I75" s="8" t="str">
@@ -3914,19 +3940,19 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="67"/>
+      <c r="Q75" s="65"/>
+      <c r="R75" s="62"/>
     </row>
     <row r="76" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="67"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="59"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="10"/>
       <c r="H76" s="7"/>
       <c r="I76" s="8" t="str">
@@ -3949,19 +3975,19 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="67"/>
+      <c r="Q76" s="65"/>
+      <c r="R76" s="62"/>
     </row>
     <row r="77" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="59"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E77" s="70"/>
-      <c r="F77" s="71"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="10"/>
       <c r="H77" s="7"/>
       <c r="I77" s="8" t="str">
@@ -3984,19 +4010,19 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="67"/>
+      <c r="Q77" s="65"/>
+      <c r="R77" s="62"/>
     </row>
     <row r="78" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="67"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="59"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E78" s="70"/>
-      <c r="F78" s="71"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="10"/>
       <c r="H78" s="7"/>
       <c r="I78" s="8" t="str">
@@ -4019,25 +4045,25 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="67"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="62"/>
     </row>
     <row r="79" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="67"/>
-      <c r="B79" s="67">
+      <c r="A79" s="62"/>
+      <c r="B79" s="62">
         <v>3.3</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="63" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E79" s="77" t="s">
+      <c r="E79" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="71" t="s">
+      <c r="F79" s="57" t="s">
         <v>46</v>
       </c>
       <c r="G79" s="10" t="s">
@@ -4064,21 +4090,21 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="60"/>
-      <c r="R79" s="67"/>
+      <c r="Q79" s="64"/>
+      <c r="R79" s="62"/>
     </row>
     <row r="80" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="67"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="59"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
       <c r="D80" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E80" s="77" t="s">
+      <c r="E80" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F80" s="73" t="s">
+      <c r="F80" s="59" t="s">
         <v>45</v>
       </c>
       <c r="G80" s="10" t="s">
@@ -4105,19 +4131,19 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="67"/>
+      <c r="Q80" s="65"/>
+      <c r="R80" s="62"/>
     </row>
     <row r="81" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="59"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="63"/>
       <c r="D81" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E81" s="76"/>
-      <c r="F81" s="71"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="10"/>
       <c r="H81" s="7"/>
       <c r="I81" s="8" t="str">
@@ -4140,19 +4166,19 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="67"/>
+      <c r="Q81" s="65"/>
+      <c r="R81" s="62"/>
     </row>
     <row r="82" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="67"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="59"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E82" s="70"/>
-      <c r="F82" s="71"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="10"/>
       <c r="H82" s="7"/>
       <c r="I82" s="8" t="str">
@@ -4175,19 +4201,19 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="67"/>
+      <c r="Q82" s="65"/>
+      <c r="R82" s="62"/>
     </row>
     <row r="83" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="59"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E83" s="70"/>
-      <c r="F83" s="71"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="10"/>
       <c r="H83" s="7"/>
       <c r="I83" s="8" t="str">
@@ -4210,19 +4236,19 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="61"/>
-      <c r="R83" s="67"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="62"/>
     </row>
     <row r="84" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="67"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="59"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E84" s="70"/>
-      <c r="F84" s="71"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="10"/>
       <c r="H84" s="7"/>
       <c r="I84" s="8" t="str">
@@ -4245,19 +4271,19 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="67"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="62"/>
     </row>
     <row r="85" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="59"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="63"/>
       <c r="D85" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E85" s="70"/>
-      <c r="F85" s="71"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="10"/>
       <c r="H85" s="7"/>
       <c r="I85" s="8" t="str">
@@ -4280,19 +4306,19 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="67"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="62"/>
     </row>
     <row r="86" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="67"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="59"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E86" s="70"/>
-      <c r="F86" s="71"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="10"/>
       <c r="H86" s="7"/>
       <c r="I86" s="8" t="str">
@@ -4315,19 +4341,19 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="67"/>
+      <c r="Q86" s="65"/>
+      <c r="R86" s="62"/>
     </row>
     <row r="87" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="67"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="59"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="63"/>
       <c r="D87" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E87" s="70"/>
-      <c r="F87" s="71"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="10"/>
       <c r="H87" s="7"/>
       <c r="I87" s="8" t="str">
@@ -4350,19 +4376,19 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="61"/>
-      <c r="R87" s="67"/>
+      <c r="Q87" s="65"/>
+      <c r="R87" s="62"/>
     </row>
     <row r="88" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="59"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E88" s="70"/>
-      <c r="F88" s="71"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="10"/>
       <c r="H88" s="7"/>
       <c r="I88" s="8" t="str">
@@ -4385,19 +4411,19 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="61"/>
-      <c r="R88" s="67"/>
+      <c r="Q88" s="65"/>
+      <c r="R88" s="62"/>
     </row>
     <row r="89" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="67"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="59"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E89" s="70"/>
-      <c r="F89" s="71"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="10"/>
       <c r="H89" s="7"/>
       <c r="I89" s="8" t="str">
@@ -4420,19 +4446,19 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="61"/>
-      <c r="R89" s="67"/>
+      <c r="Q89" s="65"/>
+      <c r="R89" s="62"/>
     </row>
     <row r="90" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="59"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E90" s="70"/>
-      <c r="F90" s="71"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="10"/>
       <c r="H90" s="7"/>
       <c r="I90" s="8" t="str">
@@ -4455,19 +4481,19 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="67"/>
+      <c r="Q90" s="65"/>
+      <c r="R90" s="62"/>
     </row>
     <row r="91" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="67"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="59"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="63"/>
       <c r="D91" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E91" s="70"/>
-      <c r="F91" s="71"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="10"/>
       <c r="H91" s="7"/>
       <c r="I91" s="8" t="str">
@@ -4490,19 +4516,19 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="61"/>
-      <c r="R91" s="67"/>
+      <c r="Q91" s="65"/>
+      <c r="R91" s="62"/>
     </row>
     <row r="92" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="67"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="59"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E92" s="70"/>
-      <c r="F92" s="71"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="10"/>
       <c r="H92" s="7"/>
       <c r="I92" s="8" t="str">
@@ -4525,19 +4551,19 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="61"/>
-      <c r="R92" s="67"/>
+      <c r="Q92" s="65"/>
+      <c r="R92" s="62"/>
     </row>
     <row r="93" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="67"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="59"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="63"/>
       <c r="D93" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E93" s="70"/>
-      <c r="F93" s="71"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="10"/>
       <c r="H93" s="7"/>
       <c r="I93" s="8" t="str">
@@ -4560,25 +4586,25 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="62"/>
-      <c r="R93" s="67"/>
+      <c r="Q93" s="66"/>
+      <c r="R93" s="62"/>
     </row>
     <row r="94" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="67"/>
-      <c r="B94" s="58">
+      <c r="A94" s="62"/>
+      <c r="B94" s="71">
         <v>3.4</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C94" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E94" s="72" t="s">
+      <c r="E94" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F94" s="73" t="s">
+      <c r="F94" s="59" t="s">
         <v>48</v>
       </c>
       <c r="G94" s="10" t="s">
@@ -4605,24 +4631,26 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="54"/>
-      <c r="R94" s="58"/>
+      <c r="Q94" s="72"/>
+      <c r="R94" s="71"/>
     </row>
     <row r="95" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="67"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="59"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="63"/>
       <c r="D95" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E95" s="72" t="s">
+      <c r="E95" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F95" s="73" t="s">
+      <c r="F95" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G95" s="10"/>
+      <c r="G95" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H95" s="7"/>
       <c r="I95" s="8" t="str">
         <f t="shared" si="5"/>
@@ -4644,19 +4672,19 @@
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="55"/>
-      <c r="R95" s="58"/>
+      <c r="Q95" s="73"/>
+      <c r="R95" s="71"/>
     </row>
     <row r="96" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="67"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="59"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E96" s="70"/>
-      <c r="F96" s="73"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="59"/>
       <c r="G96" s="10"/>
       <c r="H96" s="7"/>
       <c r="I96" s="8" t="str">
@@ -4679,19 +4707,19 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="55"/>
-      <c r="R96" s="58"/>
+      <c r="Q96" s="73"/>
+      <c r="R96" s="71"/>
     </row>
     <row r="97" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="67"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="59"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="63"/>
       <c r="D97" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E97" s="70"/>
-      <c r="F97" s="71"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="10"/>
       <c r="H97" s="7"/>
       <c r="I97" s="8" t="str">
@@ -4714,19 +4742,19 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="58"/>
+      <c r="Q97" s="73"/>
+      <c r="R97" s="71"/>
     </row>
     <row r="98" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="67"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="59"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E98" s="70"/>
-      <c r="F98" s="71"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
       <c r="G98" s="10"/>
       <c r="H98" s="7"/>
       <c r="I98" s="8" t="str">
@@ -4749,19 +4777,19 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="58"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="71"/>
     </row>
     <row r="99" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="67"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="59"/>
+      <c r="A99" s="62"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="63"/>
       <c r="D99" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E99" s="70"/>
-      <c r="F99" s="71"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="57"/>
       <c r="G99" s="10"/>
       <c r="H99" s="7"/>
       <c r="I99" s="8" t="str">
@@ -4784,19 +4812,19 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="55"/>
-      <c r="R99" s="58"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="71"/>
     </row>
     <row r="100" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="67"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="59"/>
+      <c r="A100" s="62"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E100" s="70"/>
-      <c r="F100" s="71"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="10"/>
       <c r="H100" s="7"/>
       <c r="I100" s="8" t="str">
@@ -4819,19 +4847,19 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="55"/>
-      <c r="R100" s="58"/>
+      <c r="Q100" s="73"/>
+      <c r="R100" s="71"/>
     </row>
     <row r="101" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="67"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="59"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E101" s="70"/>
-      <c r="F101" s="71"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="10"/>
       <c r="H101" s="7"/>
       <c r="I101" s="8" t="str">
@@ -4854,19 +4882,19 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-      <c r="Q101" s="55"/>
-      <c r="R101" s="58"/>
+      <c r="Q101" s="73"/>
+      <c r="R101" s="71"/>
     </row>
     <row r="102" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="67"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="59"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E102" s="70"/>
-      <c r="F102" s="71"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="10"/>
       <c r="H102" s="7"/>
       <c r="I102" s="8" t="str">
@@ -4889,19 +4917,19 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-      <c r="Q102" s="55"/>
-      <c r="R102" s="58"/>
+      <c r="Q102" s="73"/>
+      <c r="R102" s="71"/>
     </row>
     <row r="103" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="67"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="59"/>
+      <c r="A103" s="62"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="63"/>
       <c r="D103" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E103" s="70"/>
-      <c r="F103" s="71"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="10"/>
       <c r="H103" s="7"/>
       <c r="I103" s="8" t="str">
@@ -4924,19 +4952,19 @@
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="55"/>
-      <c r="R103" s="58"/>
+      <c r="Q103" s="73"/>
+      <c r="R103" s="71"/>
     </row>
     <row r="104" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="67"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="59"/>
+      <c r="A104" s="62"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="63"/>
       <c r="D104" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E104" s="70"/>
-      <c r="F104" s="71"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="57"/>
       <c r="G104" s="10"/>
       <c r="H104" s="7"/>
       <c r="I104" s="8" t="str">
@@ -4959,19 +4987,19 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="55"/>
-      <c r="R104" s="58"/>
+      <c r="Q104" s="73"/>
+      <c r="R104" s="71"/>
     </row>
     <row r="105" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="67"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="59"/>
+      <c r="A105" s="62"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="63"/>
       <c r="D105" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E105" s="70"/>
-      <c r="F105" s="71"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="57"/>
       <c r="G105" s="10"/>
       <c r="H105" s="7"/>
       <c r="I105" s="8" t="str">
@@ -4994,19 +5022,19 @@
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
-      <c r="Q105" s="55"/>
-      <c r="R105" s="58"/>
+      <c r="Q105" s="73"/>
+      <c r="R105" s="71"/>
     </row>
     <row r="106" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="67"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="59"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E106" s="70"/>
-      <c r="F106" s="71"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="57"/>
       <c r="G106" s="10"/>
       <c r="H106" s="7"/>
       <c r="I106" s="8" t="str">
@@ -5029,19 +5057,19 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
-      <c r="Q106" s="55"/>
-      <c r="R106" s="58"/>
+      <c r="Q106" s="73"/>
+      <c r="R106" s="71"/>
     </row>
     <row r="107" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="67"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="59"/>
+      <c r="A107" s="62"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="63"/>
       <c r="D107" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E107" s="70"/>
-      <c r="F107" s="71"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="57"/>
       <c r="G107" s="10"/>
       <c r="H107" s="7"/>
       <c r="I107" s="8" t="str">
@@ -5064,19 +5092,19 @@
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
-      <c r="Q107" s="55"/>
-      <c r="R107" s="58"/>
+      <c r="Q107" s="73"/>
+      <c r="R107" s="71"/>
     </row>
     <row r="108" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="67"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="59"/>
+      <c r="A108" s="62"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="63"/>
       <c r="D108" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E108" s="70"/>
-      <c r="F108" s="71"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="10"/>
       <c r="H108" s="7"/>
       <c r="I108" s="8" t="str">
@@ -5099,25 +5127,25 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
-      <c r="Q108" s="56"/>
-      <c r="R108" s="58"/>
+      <c r="Q108" s="74"/>
+      <c r="R108" s="71"/>
     </row>
     <row r="109" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="67"/>
-      <c r="B109" s="58">
+      <c r="A109" s="62"/>
+      <c r="B109" s="71">
         <v>3.5</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="63" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E109" s="74" t="s">
+      <c r="E109" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="F109" s="71" t="s">
+      <c r="F109" s="57" t="s">
         <v>25</v>
       </c>
       <c r="G109" s="10" t="s">
@@ -5144,22 +5172,20 @@
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
-      <c r="Q109" s="54"/>
-      <c r="R109" s="58"/>
+      <c r="Q109" s="72"/>
+      <c r="R109" s="71"/>
     </row>
     <row r="110" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="67"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="59"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="63"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E110" s="76"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="E110" s="60"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="10"/>
       <c r="H110" s="4"/>
       <c r="I110" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5181,22 +5207,20 @@
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
-      <c r="Q110" s="55"/>
-      <c r="R110" s="58"/>
+      <c r="Q110" s="73"/>
+      <c r="R110" s="71"/>
     </row>
     <row r="111" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="67"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="59"/>
+      <c r="A111" s="62"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="63"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E111" s="70"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="E111" s="56"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="7"/>
       <c r="I111" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5218,19 +5242,19 @@
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
-      <c r="Q111" s="55"/>
-      <c r="R111" s="58"/>
+      <c r="Q111" s="73"/>
+      <c r="R111" s="71"/>
     </row>
     <row r="112" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="67"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="59"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E112" s="70"/>
-      <c r="F112" s="71"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="57"/>
       <c r="G112" s="10"/>
       <c r="H112" s="7"/>
       <c r="I112" s="8" t="str">
@@ -5253,19 +5277,19 @@
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="55"/>
-      <c r="R112" s="58"/>
+      <c r="Q112" s="73"/>
+      <c r="R112" s="71"/>
     </row>
     <row r="113" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="67"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="59"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E113" s="70"/>
-      <c r="F113" s="71"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="57"/>
       <c r="G113" s="10"/>
       <c r="H113" s="7"/>
       <c r="I113" s="8" t="str">
@@ -5288,19 +5312,19 @@
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="55"/>
-      <c r="R113" s="58"/>
+      <c r="Q113" s="73"/>
+      <c r="R113" s="71"/>
     </row>
     <row r="114" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="67"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="59"/>
+      <c r="A114" s="62"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="63"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E114" s="70"/>
-      <c r="F114" s="71"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="57"/>
       <c r="G114" s="10"/>
       <c r="H114" s="7"/>
       <c r="I114" s="8" t="str">
@@ -5323,19 +5347,19 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="55"/>
-      <c r="R114" s="58"/>
+      <c r="Q114" s="73"/>
+      <c r="R114" s="71"/>
     </row>
     <row r="115" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="67"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="59"/>
+      <c r="A115" s="62"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="63"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E115" s="70"/>
-      <c r="F115" s="71"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="57"/>
       <c r="G115" s="10"/>
       <c r="H115" s="7"/>
       <c r="I115" s="8" t="str">
@@ -5358,19 +5382,19 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
-      <c r="Q115" s="55"/>
-      <c r="R115" s="58"/>
+      <c r="Q115" s="73"/>
+      <c r="R115" s="71"/>
     </row>
     <row r="116" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="67"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="59"/>
+      <c r="A116" s="62"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E116" s="70"/>
-      <c r="F116" s="71"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="57"/>
       <c r="G116" s="10"/>
       <c r="H116" s="7"/>
       <c r="I116" s="8" t="str">
@@ -5393,19 +5417,19 @@
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
-      <c r="Q116" s="55"/>
-      <c r="R116" s="58"/>
+      <c r="Q116" s="73"/>
+      <c r="R116" s="71"/>
     </row>
     <row r="117" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="67"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="59"/>
+      <c r="A117" s="62"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="63"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E117" s="70"/>
-      <c r="F117" s="71"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="57"/>
       <c r="G117" s="10"/>
       <c r="H117" s="7"/>
       <c r="I117" s="8" t="str">
@@ -5428,19 +5452,19 @@
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
-      <c r="Q117" s="55"/>
-      <c r="R117" s="58"/>
+      <c r="Q117" s="73"/>
+      <c r="R117" s="71"/>
     </row>
     <row r="118" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="67"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="59"/>
+      <c r="A118" s="62"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E118" s="70"/>
-      <c r="F118" s="71"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="57"/>
       <c r="G118" s="10"/>
       <c r="H118" s="7"/>
       <c r="I118" s="8" t="str">
@@ -5463,19 +5487,19 @@
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="55"/>
-      <c r="R118" s="58"/>
+      <c r="Q118" s="73"/>
+      <c r="R118" s="71"/>
     </row>
     <row r="119" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="67"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="59"/>
+      <c r="A119" s="62"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E119" s="70"/>
-      <c r="F119" s="71"/>
+      <c r="E119" s="56"/>
+      <c r="F119" s="57"/>
       <c r="G119" s="10"/>
       <c r="H119" s="7"/>
       <c r="I119" s="8" t="str">
@@ -5498,19 +5522,19 @@
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="55"/>
-      <c r="R119" s="58"/>
+      <c r="Q119" s="73"/>
+      <c r="R119" s="71"/>
     </row>
     <row r="120" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="67"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="59"/>
+      <c r="A120" s="62"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E120" s="70"/>
-      <c r="F120" s="71"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="57"/>
       <c r="G120" s="10"/>
       <c r="H120" s="7"/>
       <c r="I120" s="8" t="str">
@@ -5533,19 +5557,19 @@
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="55"/>
-      <c r="R120" s="58"/>
+      <c r="Q120" s="73"/>
+      <c r="R120" s="71"/>
     </row>
     <row r="121" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="67"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="59"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="63"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E121" s="70"/>
-      <c r="F121" s="71"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="57"/>
       <c r="G121" s="10"/>
       <c r="H121" s="7"/>
       <c r="I121" s="8" t="str">
@@ -5568,19 +5592,19 @@
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
-      <c r="Q121" s="55"/>
-      <c r="R121" s="58"/>
+      <c r="Q121" s="73"/>
+      <c r="R121" s="71"/>
     </row>
     <row r="122" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="67"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="59"/>
+      <c r="A122" s="62"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="63"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E122" s="70"/>
-      <c r="F122" s="71"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="57"/>
       <c r="G122" s="10"/>
       <c r="H122" s="7"/>
       <c r="I122" s="8" t="str">
@@ -5603,19 +5627,19 @@
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
-      <c r="Q122" s="55"/>
-      <c r="R122" s="58"/>
+      <c r="Q122" s="73"/>
+      <c r="R122" s="71"/>
     </row>
     <row r="123" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="67"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="59"/>
+      <c r="A123" s="62"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="63"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E123" s="70"/>
-      <c r="F123" s="71"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="57"/>
       <c r="G123" s="10"/>
       <c r="H123" s="7"/>
       <c r="I123" s="8" t="str">
@@ -5638,25 +5662,25 @@
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
-      <c r="Q123" s="56"/>
-      <c r="R123" s="58"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="71"/>
     </row>
     <row r="124" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="67"/>
-      <c r="B124" s="58">
+      <c r="A124" s="62"/>
+      <c r="B124" s="71">
         <v>3.6</v>
       </c>
-      <c r="C124" s="59" t="s">
+      <c r="C124" s="63" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E124" s="74" t="s">
+      <c r="E124" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="F124" s="71" t="s">
+      <c r="F124" s="57" t="s">
         <v>25</v>
       </c>
       <c r="G124" s="10" t="s">
@@ -5683,21 +5707,21 @@
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="54"/>
-      <c r="R124" s="58"/>
+      <c r="Q124" s="72"/>
+      <c r="R124" s="71"/>
     </row>
     <row r="125" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="67"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="59"/>
+      <c r="A125" s="62"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="63"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E125" s="72" t="s">
+      <c r="E125" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F125" s="73" t="s">
+      <c r="F125" s="59" t="s">
         <v>52</v>
       </c>
       <c r="G125" s="10" t="s">
@@ -5724,24 +5748,26 @@
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="55"/>
-      <c r="R125" s="58"/>
+      <c r="Q125" s="73"/>
+      <c r="R125" s="71"/>
     </row>
     <row r="126" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="67"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="59"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="63"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E126" s="75" t="s">
+      <c r="E126" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="F126" s="73" t="s">
+      <c r="F126" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G126" s="10"/>
+      <c r="G126" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H126" s="7"/>
       <c r="I126" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5763,24 +5789,26 @@
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
-      <c r="Q126" s="55"/>
-      <c r="R126" s="58"/>
+      <c r="Q126" s="73"/>
+      <c r="R126" s="71"/>
     </row>
     <row r="127" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="67"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="59"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="63"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E127" s="78" t="s">
+      <c r="E127" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="F127" s="73" t="s">
+      <c r="F127" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G127" s="10"/>
+      <c r="G127" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5802,13 +5830,13 @@
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
-      <c r="Q127" s="55"/>
-      <c r="R127" s="58"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="71"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="59"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="63"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5837,13 +5865,13 @@
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
-      <c r="Q128" s="55"/>
-      <c r="R128" s="58"/>
+      <c r="Q128" s="73"/>
+      <c r="R128" s="71"/>
     </row>
     <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="59"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="63"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5872,13 +5900,13 @@
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
-      <c r="Q129" s="55"/>
-      <c r="R129" s="58"/>
+      <c r="Q129" s="73"/>
+      <c r="R129" s="71"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="59"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="63"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5907,13 +5935,13 @@
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="55"/>
-      <c r="R130" s="58"/>
+      <c r="Q130" s="73"/>
+      <c r="R130" s="71"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="59"/>
+      <c r="A131" s="62"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="63"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5942,13 +5970,13 @@
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="55"/>
-      <c r="R131" s="58"/>
+      <c r="Q131" s="73"/>
+      <c r="R131" s="71"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="59"/>
+      <c r="A132" s="62"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="63"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5977,13 +6005,13 @@
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="55"/>
-      <c r="R132" s="58"/>
+      <c r="Q132" s="73"/>
+      <c r="R132" s="71"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="59"/>
+      <c r="A133" s="62"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="63"/>
       <c r="D133" s="4" t="str">
         <f t="shared" ref="D133:D196" si="7">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6012,13 +6040,13 @@
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="55"/>
-      <c r="R133" s="58"/>
+      <c r="Q133" s="73"/>
+      <c r="R133" s="71"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="59"/>
+      <c r="A134" s="62"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="63"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6047,13 +6075,13 @@
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
-      <c r="Q134" s="55"/>
-      <c r="R134" s="58"/>
+      <c r="Q134" s="73"/>
+      <c r="R134" s="71"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="59"/>
+      <c r="A135" s="62"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="63"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6082,13 +6110,13 @@
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="55"/>
-      <c r="R135" s="58"/>
+      <c r="Q135" s="73"/>
+      <c r="R135" s="71"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="59"/>
+      <c r="A136" s="62"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="63"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6117,13 +6145,13 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="55"/>
-      <c r="R136" s="58"/>
+      <c r="Q136" s="73"/>
+      <c r="R136" s="71"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="59"/>
+      <c r="A137" s="62"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="63"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6152,13 +6180,13 @@
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="55"/>
-      <c r="R137" s="58"/>
+      <c r="Q137" s="73"/>
+      <c r="R137" s="71"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="59"/>
+      <c r="A138" s="62"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="63"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6187,13 +6215,13 @@
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
-      <c r="Q138" s="56"/>
-      <c r="R138" s="58"/>
+      <c r="Q138" s="74"/>
+      <c r="R138" s="71"/>
     </row>
     <row r="139" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="59"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="63"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6222,13 +6250,13 @@
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
-      <c r="Q139" s="54"/>
-      <c r="R139" s="58"/>
+      <c r="Q139" s="72"/>
+      <c r="R139" s="71"/>
     </row>
     <row r="140" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="59"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="63"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6257,13 +6285,13 @@
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
-      <c r="Q140" s="55"/>
-      <c r="R140" s="58"/>
+      <c r="Q140" s="73"/>
+      <c r="R140" s="71"/>
     </row>
     <row r="141" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="59"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="63"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6292,13 +6320,13 @@
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
-      <c r="Q141" s="55"/>
-      <c r="R141" s="58"/>
+      <c r="Q141" s="73"/>
+      <c r="R141" s="71"/>
     </row>
     <row r="142" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="59"/>
+      <c r="B142" s="71"/>
+      <c r="C142" s="63"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6327,13 +6355,13 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
-      <c r="Q142" s="55"/>
-      <c r="R142" s="58"/>
+      <c r="Q142" s="73"/>
+      <c r="R142" s="71"/>
     </row>
     <row r="143" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="59"/>
+      <c r="B143" s="71"/>
+      <c r="C143" s="63"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6362,13 +6390,13 @@
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
-      <c r="Q143" s="55"/>
-      <c r="R143" s="58"/>
+      <c r="Q143" s="73"/>
+      <c r="R143" s="71"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="59"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="63"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6397,13 +6425,13 @@
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
-      <c r="Q144" s="55"/>
-      <c r="R144" s="58"/>
+      <c r="Q144" s="73"/>
+      <c r="R144" s="71"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="59"/>
+      <c r="B145" s="71"/>
+      <c r="C145" s="63"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6432,13 +6460,13 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
-      <c r="Q145" s="55"/>
-      <c r="R145" s="58"/>
+      <c r="Q145" s="73"/>
+      <c r="R145" s="71"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="59"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="63"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6467,13 +6495,13 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="55"/>
-      <c r="R146" s="58"/>
+      <c r="Q146" s="73"/>
+      <c r="R146" s="71"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="59"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="63"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6502,13 +6530,13 @@
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="55"/>
-      <c r="R147" s="58"/>
+      <c r="Q147" s="73"/>
+      <c r="R147" s="71"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="59"/>
+      <c r="B148" s="71"/>
+      <c r="C148" s="63"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6537,13 +6565,13 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
-      <c r="Q148" s="55"/>
-      <c r="R148" s="58"/>
+      <c r="Q148" s="73"/>
+      <c r="R148" s="71"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="59"/>
+      <c r="B149" s="71"/>
+      <c r="C149" s="63"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6572,13 +6600,13 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="55"/>
-      <c r="R149" s="58"/>
+      <c r="Q149" s="73"/>
+      <c r="R149" s="71"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="59"/>
+      <c r="B150" s="71"/>
+      <c r="C150" s="63"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6607,13 +6635,13 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="55"/>
-      <c r="R150" s="58"/>
+      <c r="Q150" s="73"/>
+      <c r="R150" s="71"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
-      <c r="B151" s="58"/>
-      <c r="C151" s="59"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="63"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6642,13 +6670,13 @@
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
-      <c r="Q151" s="55"/>
-      <c r="R151" s="58"/>
+      <c r="Q151" s="73"/>
+      <c r="R151" s="71"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="59"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="63"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6677,13 +6705,13 @@
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
-      <c r="Q152" s="55"/>
-      <c r="R152" s="58"/>
+      <c r="Q152" s="73"/>
+      <c r="R152" s="71"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
-      <c r="B153" s="58"/>
-      <c r="C153" s="59"/>
+      <c r="B153" s="71"/>
+      <c r="C153" s="63"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6712,13 +6740,13 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
-      <c r="Q153" s="56"/>
-      <c r="R153" s="58"/>
+      <c r="Q153" s="74"/>
+      <c r="R153" s="71"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="57"/>
+      <c r="B154" s="73"/>
+      <c r="C154" s="75"/>
       <c r="D154" s="18" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6747,13 +6775,13 @@
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
-      <c r="Q154" s="54"/>
-      <c r="R154" s="58"/>
+      <c r="Q154" s="72"/>
+      <c r="R154" s="71"/>
     </row>
     <row r="155" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
-      <c r="B155" s="55"/>
-      <c r="C155" s="57"/>
+      <c r="B155" s="73"/>
+      <c r="C155" s="75"/>
       <c r="D155" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6782,13 +6810,13 @@
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
-      <c r="Q155" s="55"/>
-      <c r="R155" s="58"/>
+      <c r="Q155" s="73"/>
+      <c r="R155" s="71"/>
     </row>
     <row r="156" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="57"/>
+      <c r="B156" s="73"/>
+      <c r="C156" s="75"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6817,13 +6845,13 @@
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
-      <c r="Q156" s="55"/>
-      <c r="R156" s="58"/>
+      <c r="Q156" s="73"/>
+      <c r="R156" s="71"/>
     </row>
     <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="57"/>
+      <c r="B157" s="73"/>
+      <c r="C157" s="75"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6852,13 +6880,13 @@
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
-      <c r="Q157" s="55"/>
-      <c r="R157" s="58"/>
+      <c r="Q157" s="73"/>
+      <c r="R157" s="71"/>
     </row>
     <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
-      <c r="B158" s="55"/>
-      <c r="C158" s="57"/>
+      <c r="B158" s="73"/>
+      <c r="C158" s="75"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6887,13 +6915,13 @@
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
-      <c r="Q158" s="55"/>
-      <c r="R158" s="58"/>
+      <c r="Q158" s="73"/>
+      <c r="R158" s="71"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
-      <c r="B159" s="55"/>
-      <c r="C159" s="57"/>
+      <c r="B159" s="73"/>
+      <c r="C159" s="75"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6922,13 +6950,13 @@
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
-      <c r="Q159" s="55"/>
-      <c r="R159" s="58"/>
+      <c r="Q159" s="73"/>
+      <c r="R159" s="71"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
-      <c r="B160" s="55"/>
-      <c r="C160" s="57"/>
+      <c r="B160" s="73"/>
+      <c r="C160" s="75"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6957,13 +6985,13 @@
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
-      <c r="Q160" s="55"/>
-      <c r="R160" s="58"/>
+      <c r="Q160" s="73"/>
+      <c r="R160" s="71"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
-      <c r="B161" s="55"/>
-      <c r="C161" s="57"/>
+      <c r="B161" s="73"/>
+      <c r="C161" s="75"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6992,13 +7020,13 @@
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
-      <c r="Q161" s="55"/>
-      <c r="R161" s="58"/>
+      <c r="Q161" s="73"/>
+      <c r="R161" s="71"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="57"/>
+      <c r="B162" s="73"/>
+      <c r="C162" s="75"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7027,13 +7055,13 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
-      <c r="Q162" s="55"/>
-      <c r="R162" s="58"/>
+      <c r="Q162" s="73"/>
+      <c r="R162" s="71"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="57"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="75"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7062,13 +7090,13 @@
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
-      <c r="Q163" s="55"/>
-      <c r="R163" s="58"/>
+      <c r="Q163" s="73"/>
+      <c r="R163" s="71"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="57"/>
+      <c r="B164" s="73"/>
+      <c r="C164" s="75"/>
       <c r="D164" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7097,13 +7125,13 @@
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
-      <c r="Q164" s="55"/>
-      <c r="R164" s="58"/>
+      <c r="Q164" s="73"/>
+      <c r="R164" s="71"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="57"/>
+      <c r="B165" s="73"/>
+      <c r="C165" s="75"/>
       <c r="D165" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7132,13 +7160,13 @@
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
-      <c r="Q165" s="55"/>
-      <c r="R165" s="58"/>
+      <c r="Q165" s="73"/>
+      <c r="R165" s="71"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="57"/>
+      <c r="B166" s="73"/>
+      <c r="C166" s="75"/>
       <c r="D166" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7167,13 +7195,13 @@
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
-      <c r="Q166" s="55"/>
-      <c r="R166" s="58"/>
+      <c r="Q166" s="73"/>
+      <c r="R166" s="71"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="57"/>
+      <c r="B167" s="73"/>
+      <c r="C167" s="75"/>
       <c r="D167" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7202,13 +7230,13 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
-      <c r="Q167" s="55"/>
-      <c r="R167" s="58"/>
+      <c r="Q167" s="73"/>
+      <c r="R167" s="71"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
-      <c r="B168" s="56"/>
-      <c r="C168" s="57"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="75"/>
       <c r="D168" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7237,13 +7265,13 @@
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
-      <c r="Q168" s="56"/>
-      <c r="R168" s="58"/>
+      <c r="Q168" s="74"/>
+      <c r="R168" s="71"/>
     </row>
     <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="57"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="75"/>
       <c r="D169" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7272,13 +7300,13 @@
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
-      <c r="Q169" s="54"/>
-      <c r="R169" s="58"/>
+      <c r="Q169" s="72"/>
+      <c r="R169" s="71"/>
     </row>
     <row r="170" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="57"/>
+      <c r="B170" s="73"/>
+      <c r="C170" s="75"/>
       <c r="D170" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7307,13 +7335,13 @@
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
-      <c r="Q170" s="55"/>
-      <c r="R170" s="58"/>
+      <c r="Q170" s="73"/>
+      <c r="R170" s="71"/>
     </row>
     <row r="171" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
-      <c r="B171" s="55"/>
-      <c r="C171" s="57"/>
+      <c r="B171" s="73"/>
+      <c r="C171" s="75"/>
       <c r="D171" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7342,13 +7370,13 @@
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
-      <c r="Q171" s="55"/>
-      <c r="R171" s="58"/>
+      <c r="Q171" s="73"/>
+      <c r="R171" s="71"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="57"/>
+      <c r="B172" s="73"/>
+      <c r="C172" s="75"/>
       <c r="D172" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7377,13 +7405,13 @@
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
-      <c r="Q172" s="55"/>
-      <c r="R172" s="58"/>
+      <c r="Q172" s="73"/>
+      <c r="R172" s="71"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
-      <c r="B173" s="55"/>
-      <c r="C173" s="57"/>
+      <c r="B173" s="73"/>
+      <c r="C173" s="75"/>
       <c r="D173" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7412,13 +7440,13 @@
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
-      <c r="Q173" s="55"/>
-      <c r="R173" s="58"/>
+      <c r="Q173" s="73"/>
+      <c r="R173" s="71"/>
     </row>
     <row r="174" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="57"/>
+      <c r="B174" s="73"/>
+      <c r="C174" s="75"/>
       <c r="D174" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7447,13 +7475,13 @@
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
-      <c r="Q174" s="55"/>
-      <c r="R174" s="58"/>
+      <c r="Q174" s="73"/>
+      <c r="R174" s="71"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="57"/>
+      <c r="B175" s="73"/>
+      <c r="C175" s="75"/>
       <c r="D175" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7482,13 +7510,13 @@
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
-      <c r="Q175" s="55"/>
-      <c r="R175" s="58"/>
+      <c r="Q175" s="73"/>
+      <c r="R175" s="71"/>
     </row>
     <row r="176" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
-      <c r="B176" s="55"/>
-      <c r="C176" s="57"/>
+      <c r="B176" s="73"/>
+      <c r="C176" s="75"/>
       <c r="D176" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7517,13 +7545,13 @@
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="55"/>
-      <c r="R176" s="58"/>
+      <c r="Q176" s="73"/>
+      <c r="R176" s="71"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
-      <c r="B177" s="55"/>
-      <c r="C177" s="57"/>
+      <c r="B177" s="73"/>
+      <c r="C177" s="75"/>
       <c r="D177" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7552,13 +7580,13 @@
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="55"/>
-      <c r="R177" s="58"/>
+      <c r="Q177" s="73"/>
+      <c r="R177" s="71"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="57"/>
+      <c r="B178" s="73"/>
+      <c r="C178" s="75"/>
       <c r="D178" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7587,13 +7615,13 @@
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="55"/>
-      <c r="R178" s="58"/>
+      <c r="Q178" s="73"/>
+      <c r="R178" s="71"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="57"/>
+      <c r="B179" s="73"/>
+      <c r="C179" s="75"/>
       <c r="D179" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7622,13 +7650,13 @@
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="55"/>
-      <c r="R179" s="58"/>
+      <c r="Q179" s="73"/>
+      <c r="R179" s="71"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="57"/>
+      <c r="B180" s="73"/>
+      <c r="C180" s="75"/>
       <c r="D180" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7657,13 +7685,13 @@
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="55"/>
-      <c r="R180" s="58"/>
+      <c r="Q180" s="73"/>
+      <c r="R180" s="71"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="57"/>
+      <c r="B181" s="73"/>
+      <c r="C181" s="75"/>
       <c r="D181" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7692,13 +7720,13 @@
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="55"/>
-      <c r="R181" s="58"/>
+      <c r="Q181" s="73"/>
+      <c r="R181" s="71"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
-      <c r="B182" s="55"/>
-      <c r="C182" s="57"/>
+      <c r="B182" s="73"/>
+      <c r="C182" s="75"/>
       <c r="D182" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7727,13 +7755,13 @@
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="55"/>
-      <c r="R182" s="58"/>
+      <c r="Q182" s="73"/>
+      <c r="R182" s="71"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
-      <c r="B183" s="56"/>
-      <c r="C183" s="57"/>
+      <c r="B183" s="74"/>
+      <c r="C183" s="75"/>
       <c r="D183" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7762,13 +7790,13 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="56"/>
-      <c r="R183" s="58"/>
+      <c r="Q183" s="74"/>
+      <c r="R183" s="71"/>
     </row>
     <row r="184" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="57"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="75"/>
       <c r="D184" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7797,13 +7825,13 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="54"/>
-      <c r="R184" s="58"/>
+      <c r="Q184" s="72"/>
+      <c r="R184" s="71"/>
     </row>
     <row r="185" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A185" s="17"/>
-      <c r="B185" s="55"/>
-      <c r="C185" s="57"/>
+      <c r="B185" s="73"/>
+      <c r="C185" s="75"/>
       <c r="D185" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7832,13 +7860,13 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="55"/>
-      <c r="R185" s="58"/>
+      <c r="Q185" s="73"/>
+      <c r="R185" s="71"/>
     </row>
     <row r="186" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="57"/>
+      <c r="B186" s="73"/>
+      <c r="C186" s="75"/>
       <c r="D186" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7867,13 +7895,13 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
-      <c r="Q186" s="55"/>
-      <c r="R186" s="58"/>
+      <c r="Q186" s="73"/>
+      <c r="R186" s="71"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
-      <c r="B187" s="55"/>
-      <c r="C187" s="57"/>
+      <c r="B187" s="73"/>
+      <c r="C187" s="75"/>
       <c r="D187" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7902,13 +7930,13 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="55"/>
-      <c r="R187" s="58"/>
+      <c r="Q187" s="73"/>
+      <c r="R187" s="71"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="17"/>
-      <c r="B188" s="55"/>
-      <c r="C188" s="57"/>
+      <c r="B188" s="73"/>
+      <c r="C188" s="75"/>
       <c r="D188" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7937,13 +7965,13 @@
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="55"/>
-      <c r="R188" s="58"/>
+      <c r="Q188" s="73"/>
+      <c r="R188" s="71"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
-      <c r="B189" s="55"/>
-      <c r="C189" s="57"/>
+      <c r="B189" s="73"/>
+      <c r="C189" s="75"/>
       <c r="D189" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7972,13 +8000,13 @@
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="55"/>
-      <c r="R189" s="58"/>
+      <c r="Q189" s="73"/>
+      <c r="R189" s="71"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
-      <c r="B190" s="55"/>
-      <c r="C190" s="57"/>
+      <c r="B190" s="73"/>
+      <c r="C190" s="75"/>
       <c r="D190" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8007,13 +8035,13 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="55"/>
-      <c r="R190" s="58"/>
+      <c r="Q190" s="73"/>
+      <c r="R190" s="71"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
-      <c r="B191" s="55"/>
-      <c r="C191" s="57"/>
+      <c r="B191" s="73"/>
+      <c r="C191" s="75"/>
       <c r="D191" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8042,13 +8070,13 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="55"/>
-      <c r="R191" s="58"/>
+      <c r="Q191" s="73"/>
+      <c r="R191" s="71"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="57"/>
+      <c r="B192" s="73"/>
+      <c r="C192" s="75"/>
       <c r="D192" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8077,13 +8105,13 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="55"/>
-      <c r="R192" s="58"/>
+      <c r="Q192" s="73"/>
+      <c r="R192" s="71"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
-      <c r="B193" s="55"/>
-      <c r="C193" s="57"/>
+      <c r="B193" s="73"/>
+      <c r="C193" s="75"/>
       <c r="D193" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8111,13 +8139,13 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="55"/>
-      <c r="R193" s="58"/>
+      <c r="Q193" s="73"/>
+      <c r="R193" s="71"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="57"/>
+      <c r="B194" s="73"/>
+      <c r="C194" s="75"/>
       <c r="D194" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8146,13 +8174,13 @@
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="55"/>
-      <c r="R194" s="58"/>
+      <c r="Q194" s="73"/>
+      <c r="R194" s="71"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
-      <c r="B195" s="55"/>
-      <c r="C195" s="57"/>
+      <c r="B195" s="73"/>
+      <c r="C195" s="75"/>
       <c r="D195" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8181,13 +8209,13 @@
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="55"/>
-      <c r="R195" s="58"/>
+      <c r="Q195" s="73"/>
+      <c r="R195" s="71"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
-      <c r="B196" s="55"/>
-      <c r="C196" s="57"/>
+      <c r="B196" s="73"/>
+      <c r="C196" s="75"/>
       <c r="D196" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8216,13 +8244,13 @@
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="55"/>
-      <c r="R196" s="58"/>
+      <c r="Q196" s="73"/>
+      <c r="R196" s="71"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
-      <c r="B197" s="55"/>
-      <c r="C197" s="57"/>
+      <c r="B197" s="73"/>
+      <c r="C197" s="75"/>
       <c r="D197" s="4" t="str">
         <f t="shared" ref="D197:D260" si="11">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8251,13 +8279,13 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="55"/>
-      <c r="R197" s="58"/>
+      <c r="Q197" s="73"/>
+      <c r="R197" s="71"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
-      <c r="B198" s="56"/>
-      <c r="C198" s="57"/>
+      <c r="B198" s="74"/>
+      <c r="C198" s="75"/>
       <c r="D198" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8286,13 +8314,13 @@
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="56"/>
-      <c r="R198" s="58"/>
+      <c r="Q198" s="74"/>
+      <c r="R198" s="71"/>
     </row>
     <row r="199" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="57"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="75"/>
       <c r="D199" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8321,13 +8349,13 @@
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="54"/>
-      <c r="R199" s="58"/>
+      <c r="Q199" s="72"/>
+      <c r="R199" s="71"/>
     </row>
     <row r="200" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A200" s="17"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="57"/>
+      <c r="B200" s="73"/>
+      <c r="C200" s="75"/>
       <c r="D200" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8356,13 +8384,13 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="55"/>
-      <c r="R200" s="58"/>
+      <c r="Q200" s="73"/>
+      <c r="R200" s="71"/>
     </row>
     <row r="201" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A201" s="17"/>
-      <c r="B201" s="55"/>
-      <c r="C201" s="57"/>
+      <c r="B201" s="73"/>
+      <c r="C201" s="75"/>
       <c r="D201" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8391,13 +8419,13 @@
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="55"/>
-      <c r="R201" s="58"/>
+      <c r="Q201" s="73"/>
+      <c r="R201" s="71"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
-      <c r="B202" s="55"/>
-      <c r="C202" s="57"/>
+      <c r="B202" s="73"/>
+      <c r="C202" s="75"/>
       <c r="D202" s="29" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8426,13 +8454,13 @@
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="55"/>
-      <c r="R202" s="58"/>
+      <c r="Q202" s="73"/>
+      <c r="R202" s="71"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
-      <c r="B203" s="55"/>
-      <c r="C203" s="57"/>
+      <c r="B203" s="73"/>
+      <c r="C203" s="75"/>
       <c r="D203" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8461,13 +8489,13 @@
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="55"/>
-      <c r="R203" s="58"/>
+      <c r="Q203" s="73"/>
+      <c r="R203" s="71"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="57"/>
+      <c r="B204" s="73"/>
+      <c r="C204" s="75"/>
       <c r="D204" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8496,13 +8524,13 @@
       <c r="N204" s="10"/>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="55"/>
-      <c r="R204" s="58"/>
+      <c r="Q204" s="73"/>
+      <c r="R204" s="71"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="57"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="75"/>
       <c r="D205" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8531,13 +8559,13 @@
       <c r="N205" s="10"/>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="55"/>
-      <c r="R205" s="58"/>
+      <c r="Q205" s="73"/>
+      <c r="R205" s="71"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="57"/>
+      <c r="B206" s="73"/>
+      <c r="C206" s="75"/>
       <c r="D206" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8566,13 +8594,13 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="55"/>
-      <c r="R206" s="58"/>
+      <c r="Q206" s="73"/>
+      <c r="R206" s="71"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
-      <c r="B207" s="55"/>
-      <c r="C207" s="57"/>
+      <c r="B207" s="73"/>
+      <c r="C207" s="75"/>
       <c r="D207" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8601,13 +8629,13 @@
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="55"/>
-      <c r="R207" s="58"/>
+      <c r="Q207" s="73"/>
+      <c r="R207" s="71"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="57"/>
+      <c r="B208" s="73"/>
+      <c r="C208" s="75"/>
       <c r="D208" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8636,13 +8664,13 @@
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="58"/>
+      <c r="Q208" s="73"/>
+      <c r="R208" s="71"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="57"/>
+      <c r="B209" s="73"/>
+      <c r="C209" s="75"/>
       <c r="D209" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8671,13 +8699,13 @@
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="55"/>
-      <c r="R209" s="58"/>
+      <c r="Q209" s="73"/>
+      <c r="R209" s="71"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="57"/>
+      <c r="B210" s="73"/>
+      <c r="C210" s="75"/>
       <c r="D210" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8706,13 +8734,13 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="58"/>
+      <c r="Q210" s="73"/>
+      <c r="R210" s="71"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="57"/>
+      <c r="B211" s="73"/>
+      <c r="C211" s="75"/>
       <c r="D211" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8741,13 +8769,13 @@
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="55"/>
-      <c r="R211" s="58"/>
+      <c r="Q211" s="73"/>
+      <c r="R211" s="71"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="57"/>
+      <c r="B212" s="73"/>
+      <c r="C212" s="75"/>
       <c r="D212" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8776,13 +8804,13 @@
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="58"/>
+      <c r="Q212" s="73"/>
+      <c r="R212" s="71"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
-      <c r="B213" s="56"/>
-      <c r="C213" s="57"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="75"/>
       <c r="D213" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8811,13 +8839,13 @@
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="56"/>
-      <c r="R213" s="58"/>
+      <c r="Q213" s="74"/>
+      <c r="R213" s="71"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17"/>
-      <c r="B214" s="54"/>
-      <c r="C214" s="57"/>
+      <c r="B214" s="72"/>
+      <c r="C214" s="75"/>
       <c r="D214" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8846,13 +8874,13 @@
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="54"/>
-      <c r="R214" s="58"/>
+      <c r="Q214" s="72"/>
+      <c r="R214" s="71"/>
     </row>
     <row r="215" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A215" s="17"/>
-      <c r="B215" s="55"/>
-      <c r="C215" s="57"/>
+      <c r="B215" s="73"/>
+      <c r="C215" s="75"/>
       <c r="D215" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8881,13 +8909,13 @@
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="58"/>
+      <c r="Q215" s="73"/>
+      <c r="R215" s="71"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
-      <c r="B216" s="55"/>
-      <c r="C216" s="57"/>
+      <c r="B216" s="73"/>
+      <c r="C216" s="75"/>
       <c r="D216" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8916,13 +8944,13 @@
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="55"/>
-      <c r="R216" s="58"/>
+      <c r="Q216" s="73"/>
+      <c r="R216" s="71"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17"/>
-      <c r="B217" s="55"/>
-      <c r="C217" s="57"/>
+      <c r="B217" s="73"/>
+      <c r="C217" s="75"/>
       <c r="D217" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8951,13 +8979,13 @@
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="55"/>
-      <c r="R217" s="58"/>
+      <c r="Q217" s="73"/>
+      <c r="R217" s="71"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
-      <c r="B218" s="55"/>
-      <c r="C218" s="57"/>
+      <c r="B218" s="73"/>
+      <c r="C218" s="75"/>
       <c r="D218" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8986,13 +9014,13 @@
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="55"/>
-      <c r="R218" s="58"/>
+      <c r="Q218" s="73"/>
+      <c r="R218" s="71"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
-      <c r="B219" s="55"/>
-      <c r="C219" s="57"/>
+      <c r="B219" s="73"/>
+      <c r="C219" s="75"/>
       <c r="D219" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9021,13 +9049,13 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="55"/>
-      <c r="R219" s="58"/>
+      <c r="Q219" s="73"/>
+      <c r="R219" s="71"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="57"/>
+      <c r="B220" s="73"/>
+      <c r="C220" s="75"/>
       <c r="D220" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9056,13 +9084,13 @@
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="55"/>
-      <c r="R220" s="58"/>
+      <c r="Q220" s="73"/>
+      <c r="R220" s="71"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
-      <c r="B221" s="55"/>
-      <c r="C221" s="57"/>
+      <c r="B221" s="73"/>
+      <c r="C221" s="75"/>
       <c r="D221" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9091,13 +9119,13 @@
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="55"/>
-      <c r="R221" s="58"/>
+      <c r="Q221" s="73"/>
+      <c r="R221" s="71"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
-      <c r="B222" s="55"/>
-      <c r="C222" s="57"/>
+      <c r="B222" s="73"/>
+      <c r="C222" s="75"/>
       <c r="D222" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9126,13 +9154,13 @@
       <c r="N222" s="10"/>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="55"/>
-      <c r="R222" s="58"/>
+      <c r="Q222" s="73"/>
+      <c r="R222" s="71"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
-      <c r="B223" s="55"/>
-      <c r="C223" s="57"/>
+      <c r="B223" s="73"/>
+      <c r="C223" s="75"/>
       <c r="D223" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9161,13 +9189,13 @@
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="55"/>
-      <c r="R223" s="58"/>
+      <c r="Q223" s="73"/>
+      <c r="R223" s="71"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="57"/>
+      <c r="B224" s="73"/>
+      <c r="C224" s="75"/>
       <c r="D224" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9196,13 +9224,13 @@
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="55"/>
-      <c r="R224" s="58"/>
+      <c r="Q224" s="73"/>
+      <c r="R224" s="71"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
-      <c r="B225" s="55"/>
-      <c r="C225" s="57"/>
+      <c r="B225" s="73"/>
+      <c r="C225" s="75"/>
       <c r="D225" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9231,13 +9259,13 @@
       <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="55"/>
-      <c r="R225" s="58"/>
+      <c r="Q225" s="73"/>
+      <c r="R225" s="71"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
-      <c r="B226" s="55"/>
-      <c r="C226" s="57"/>
+      <c r="B226" s="73"/>
+      <c r="C226" s="75"/>
       <c r="D226" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9266,13 +9294,13 @@
       <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="55"/>
-      <c r="R226" s="58"/>
+      <c r="Q226" s="73"/>
+      <c r="R226" s="71"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
-      <c r="B227" s="55"/>
-      <c r="C227" s="57"/>
+      <c r="B227" s="73"/>
+      <c r="C227" s="75"/>
       <c r="D227" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9301,13 +9329,13 @@
       <c r="N227" s="10"/>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="55"/>
-      <c r="R227" s="58"/>
+      <c r="Q227" s="73"/>
+      <c r="R227" s="71"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
-      <c r="B228" s="56"/>
-      <c r="C228" s="57"/>
+      <c r="B228" s="74"/>
+      <c r="C228" s="75"/>
       <c r="D228" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9336,13 +9364,13 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="56"/>
-      <c r="R228" s="58"/>
+      <c r="Q228" s="74"/>
+      <c r="R228" s="71"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
-      <c r="B229" s="54"/>
-      <c r="C229" s="57"/>
+      <c r="B229" s="72"/>
+      <c r="C229" s="75"/>
       <c r="D229" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9371,13 +9399,13 @@
       <c r="N229" s="10"/>
       <c r="O229" s="10"/>
       <c r="P229" s="37"/>
-      <c r="Q229" s="54"/>
-      <c r="R229" s="58"/>
+      <c r="Q229" s="72"/>
+      <c r="R229" s="71"/>
     </row>
     <row r="230" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
-      <c r="B230" s="55"/>
-      <c r="C230" s="57"/>
+      <c r="B230" s="73"/>
+      <c r="C230" s="75"/>
       <c r="D230" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9406,13 +9434,13 @@
       <c r="N230" s="10"/>
       <c r="O230" s="10"/>
       <c r="P230" s="37"/>
-      <c r="Q230" s="55"/>
-      <c r="R230" s="58"/>
+      <c r="Q230" s="73"/>
+      <c r="R230" s="71"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
-      <c r="B231" s="55"/>
-      <c r="C231" s="57"/>
+      <c r="B231" s="73"/>
+      <c r="C231" s="75"/>
       <c r="D231" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9441,13 +9469,13 @@
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="55"/>
-      <c r="R231" s="58"/>
+      <c r="Q231" s="73"/>
+      <c r="R231" s="71"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
-      <c r="B232" s="55"/>
-      <c r="C232" s="57"/>
+      <c r="B232" s="73"/>
+      <c r="C232" s="75"/>
       <c r="D232" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9476,13 +9504,13 @@
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="55"/>
-      <c r="R232" s="58"/>
+      <c r="Q232" s="73"/>
+      <c r="R232" s="71"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
-      <c r="B233" s="55"/>
-      <c r="C233" s="57"/>
+      <c r="B233" s="73"/>
+      <c r="C233" s="75"/>
       <c r="D233" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9511,13 +9539,13 @@
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
-      <c r="Q233" s="55"/>
-      <c r="R233" s="58"/>
+      <c r="Q233" s="73"/>
+      <c r="R233" s="71"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="57"/>
+      <c r="B234" s="73"/>
+      <c r="C234" s="75"/>
       <c r="D234" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9546,13 +9574,13 @@
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
-      <c r="Q234" s="55"/>
-      <c r="R234" s="58"/>
+      <c r="Q234" s="73"/>
+      <c r="R234" s="71"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="57"/>
+      <c r="B235" s="73"/>
+      <c r="C235" s="75"/>
       <c r="D235" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9581,13 +9609,13 @@
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="55"/>
-      <c r="R235" s="58"/>
+      <c r="Q235" s="73"/>
+      <c r="R235" s="71"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
-      <c r="B236" s="55"/>
-      <c r="C236" s="57"/>
+      <c r="B236" s="73"/>
+      <c r="C236" s="75"/>
       <c r="D236" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9616,13 +9644,13 @@
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
-      <c r="Q236" s="55"/>
-      <c r="R236" s="58"/>
+      <c r="Q236" s="73"/>
+      <c r="R236" s="71"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
-      <c r="B237" s="55"/>
-      <c r="C237" s="57"/>
+      <c r="B237" s="73"/>
+      <c r="C237" s="75"/>
       <c r="D237" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9651,13 +9679,13 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
-      <c r="Q237" s="55"/>
-      <c r="R237" s="58"/>
+      <c r="Q237" s="73"/>
+      <c r="R237" s="71"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="57"/>
+      <c r="B238" s="73"/>
+      <c r="C238" s="75"/>
       <c r="D238" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9686,13 +9714,13 @@
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
-      <c r="Q238" s="55"/>
-      <c r="R238" s="58"/>
+      <c r="Q238" s="73"/>
+      <c r="R238" s="71"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
-      <c r="B239" s="55"/>
-      <c r="C239" s="57"/>
+      <c r="B239" s="73"/>
+      <c r="C239" s="75"/>
       <c r="D239" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9721,13 +9749,13 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
-      <c r="Q239" s="55"/>
-      <c r="R239" s="58"/>
+      <c r="Q239" s="73"/>
+      <c r="R239" s="71"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
-      <c r="B240" s="55"/>
-      <c r="C240" s="57"/>
+      <c r="B240" s="73"/>
+      <c r="C240" s="75"/>
       <c r="D240" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9756,13 +9784,13 @@
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
-      <c r="Q240" s="55"/>
-      <c r="R240" s="58"/>
+      <c r="Q240" s="73"/>
+      <c r="R240" s="71"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
-      <c r="B241" s="55"/>
-      <c r="C241" s="57"/>
+      <c r="B241" s="73"/>
+      <c r="C241" s="75"/>
       <c r="D241" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9791,13 +9819,13 @@
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
-      <c r="Q241" s="55"/>
-      <c r="R241" s="58"/>
+      <c r="Q241" s="73"/>
+      <c r="R241" s="71"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
-      <c r="B242" s="55"/>
-      <c r="C242" s="57"/>
+      <c r="B242" s="73"/>
+      <c r="C242" s="75"/>
       <c r="D242" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9826,13 +9854,13 @@
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
-      <c r="Q242" s="55"/>
-      <c r="R242" s="58"/>
+      <c r="Q242" s="73"/>
+      <c r="R242" s="71"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
-      <c r="B243" s="56"/>
-      <c r="C243" s="57"/>
+      <c r="B243" s="74"/>
+      <c r="C243" s="75"/>
       <c r="D243" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9861,13 +9889,13 @@
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
-      <c r="Q243" s="56"/>
-      <c r="R243" s="58"/>
+      <c r="Q243" s="74"/>
+      <c r="R243" s="71"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
-      <c r="B244" s="54"/>
-      <c r="C244" s="57"/>
+      <c r="B244" s="72"/>
+      <c r="C244" s="75"/>
       <c r="D244" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9896,13 +9924,13 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
-      <c r="Q244" s="54"/>
-      <c r="R244" s="58"/>
+      <c r="Q244" s="72"/>
+      <c r="R244" s="71"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
-      <c r="B245" s="55"/>
-      <c r="C245" s="57"/>
+      <c r="B245" s="73"/>
+      <c r="C245" s="75"/>
       <c r="D245" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9931,13 +9959,13 @@
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
-      <c r="Q245" s="55"/>
-      <c r="R245" s="58"/>
+      <c r="Q245" s="73"/>
+      <c r="R245" s="71"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="57"/>
+      <c r="B246" s="73"/>
+      <c r="C246" s="75"/>
       <c r="D246" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9966,13 +9994,13 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
-      <c r="Q246" s="55"/>
-      <c r="R246" s="58"/>
+      <c r="Q246" s="73"/>
+      <c r="R246" s="71"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
-      <c r="B247" s="55"/>
-      <c r="C247" s="57"/>
+      <c r="B247" s="73"/>
+      <c r="C247" s="75"/>
       <c r="D247" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10001,13 +10029,13 @@
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
-      <c r="Q247" s="55"/>
-      <c r="R247" s="58"/>
+      <c r="Q247" s="73"/>
+      <c r="R247" s="71"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
-      <c r="B248" s="55"/>
-      <c r="C248" s="57"/>
+      <c r="B248" s="73"/>
+      <c r="C248" s="75"/>
       <c r="D248" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10036,13 +10064,13 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
-      <c r="Q248" s="55"/>
-      <c r="R248" s="58"/>
+      <c r="Q248" s="73"/>
+      <c r="R248" s="71"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
-      <c r="B249" s="55"/>
-      <c r="C249" s="57"/>
+      <c r="B249" s="73"/>
+      <c r="C249" s="75"/>
       <c r="D249" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10071,13 +10099,13 @@
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
-      <c r="Q249" s="55"/>
-      <c r="R249" s="58"/>
+      <c r="Q249" s="73"/>
+      <c r="R249" s="71"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
-      <c r="B250" s="55"/>
-      <c r="C250" s="57"/>
+      <c r="B250" s="73"/>
+      <c r="C250" s="75"/>
       <c r="D250" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10106,13 +10134,13 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
-      <c r="Q250" s="55"/>
-      <c r="R250" s="58"/>
+      <c r="Q250" s="73"/>
+      <c r="R250" s="71"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17"/>
-      <c r="B251" s="55"/>
-      <c r="C251" s="57"/>
+      <c r="B251" s="73"/>
+      <c r="C251" s="75"/>
       <c r="D251" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10141,13 +10169,13 @@
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
-      <c r="Q251" s="55"/>
-      <c r="R251" s="58"/>
+      <c r="Q251" s="73"/>
+      <c r="R251" s="71"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="57"/>
+      <c r="B252" s="73"/>
+      <c r="C252" s="75"/>
       <c r="D252" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10176,13 +10204,13 @@
       <c r="N252" s="10"/>
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
-      <c r="Q252" s="55"/>
-      <c r="R252" s="58"/>
+      <c r="Q252" s="73"/>
+      <c r="R252" s="71"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
-      <c r="B253" s="55"/>
-      <c r="C253" s="57"/>
+      <c r="B253" s="73"/>
+      <c r="C253" s="75"/>
       <c r="D253" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10211,13 +10239,13 @@
       <c r="N253" s="10"/>
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
-      <c r="Q253" s="55"/>
-      <c r="R253" s="58"/>
+      <c r="Q253" s="73"/>
+      <c r="R253" s="71"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="57"/>
+      <c r="B254" s="73"/>
+      <c r="C254" s="75"/>
       <c r="D254" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10246,13 +10274,13 @@
       <c r="N254" s="10"/>
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
-      <c r="Q254" s="55"/>
-      <c r="R254" s="58"/>
+      <c r="Q254" s="73"/>
+      <c r="R254" s="71"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
-      <c r="B255" s="55"/>
-      <c r="C255" s="57"/>
+      <c r="B255" s="73"/>
+      <c r="C255" s="75"/>
       <c r="D255" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10281,13 +10309,13 @@
       <c r="N255" s="10"/>
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
-      <c r="Q255" s="55"/>
-      <c r="R255" s="58"/>
+      <c r="Q255" s="73"/>
+      <c r="R255" s="71"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
-      <c r="B256" s="55"/>
-      <c r="C256" s="57"/>
+      <c r="B256" s="73"/>
+      <c r="C256" s="75"/>
       <c r="D256" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10316,13 +10344,13 @@
       <c r="N256" s="10"/>
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
-      <c r="Q256" s="55"/>
-      <c r="R256" s="58"/>
+      <c r="Q256" s="73"/>
+      <c r="R256" s="71"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17"/>
-      <c r="B257" s="55"/>
-      <c r="C257" s="57"/>
+      <c r="B257" s="73"/>
+      <c r="C257" s="75"/>
       <c r="D257" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10351,13 +10379,13 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="55"/>
-      <c r="R257" s="58"/>
+      <c r="Q257" s="73"/>
+      <c r="R257" s="71"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
-      <c r="B258" s="56"/>
-      <c r="C258" s="57"/>
+      <c r="B258" s="74"/>
+      <c r="C258" s="75"/>
       <c r="D258" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10386,13 +10414,13 @@
       <c r="N258" s="42"/>
       <c r="O258" s="42"/>
       <c r="P258" s="42"/>
-      <c r="Q258" s="56"/>
-      <c r="R258" s="58"/>
+      <c r="Q258" s="74"/>
+      <c r="R258" s="71"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
-      <c r="B259" s="54"/>
-      <c r="C259" s="57"/>
+      <c r="B259" s="72"/>
+      <c r="C259" s="75"/>
       <c r="D259" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10421,13 +10449,13 @@
       <c r="N259" s="42"/>
       <c r="O259" s="42"/>
       <c r="P259" s="42"/>
-      <c r="Q259" s="54"/>
-      <c r="R259" s="58"/>
+      <c r="Q259" s="72"/>
+      <c r="R259" s="71"/>
     </row>
     <row r="260" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="57"/>
+      <c r="B260" s="73"/>
+      <c r="C260" s="75"/>
       <c r="D260" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10456,13 +10484,13 @@
       <c r="N260" s="42"/>
       <c r="O260" s="42"/>
       <c r="P260" s="42"/>
-      <c r="Q260" s="55"/>
-      <c r="R260" s="58"/>
+      <c r="Q260" s="73"/>
+      <c r="R260" s="71"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17"/>
-      <c r="B261" s="55"/>
-      <c r="C261" s="57"/>
+      <c r="B261" s="73"/>
+      <c r="C261" s="75"/>
       <c r="D261" s="4" t="str">
         <f t="shared" ref="D261:D273" si="15">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10491,13 +10519,13 @@
       <c r="N261" s="42"/>
       <c r="O261" s="42"/>
       <c r="P261" s="42"/>
-      <c r="Q261" s="55"/>
-      <c r="R261" s="58"/>
+      <c r="Q261" s="73"/>
+      <c r="R261" s="71"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17"/>
-      <c r="B262" s="55"/>
-      <c r="C262" s="57"/>
+      <c r="B262" s="73"/>
+      <c r="C262" s="75"/>
       <c r="D262" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10526,13 +10554,13 @@
       <c r="N262" s="42"/>
       <c r="O262" s="42"/>
       <c r="P262" s="42"/>
-      <c r="Q262" s="55"/>
-      <c r="R262" s="58"/>
+      <c r="Q262" s="73"/>
+      <c r="R262" s="71"/>
     </row>
     <row r="263" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A263" s="17"/>
-      <c r="B263" s="55"/>
-      <c r="C263" s="57"/>
+      <c r="B263" s="73"/>
+      <c r="C263" s="75"/>
       <c r="D263" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10561,13 +10589,13 @@
       <c r="N263" s="42"/>
       <c r="O263" s="42"/>
       <c r="P263" s="42"/>
-      <c r="Q263" s="55"/>
-      <c r="R263" s="58"/>
+      <c r="Q263" s="73"/>
+      <c r="R263" s="71"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A264" s="17"/>
-      <c r="B264" s="55"/>
-      <c r="C264" s="57"/>
+      <c r="B264" s="73"/>
+      <c r="C264" s="75"/>
       <c r="D264" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10596,13 +10624,13 @@
       <c r="N264" s="42"/>
       <c r="O264" s="42"/>
       <c r="P264" s="42"/>
-      <c r="Q264" s="55"/>
-      <c r="R264" s="58"/>
+      <c r="Q264" s="73"/>
+      <c r="R264" s="71"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A265" s="17"/>
-      <c r="B265" s="55"/>
-      <c r="C265" s="57"/>
+      <c r="B265" s="73"/>
+      <c r="C265" s="75"/>
       <c r="D265" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10631,13 +10659,13 @@
       <c r="N265" s="42"/>
       <c r="O265" s="42"/>
       <c r="P265" s="42"/>
-      <c r="Q265" s="55"/>
-      <c r="R265" s="58"/>
+      <c r="Q265" s="73"/>
+      <c r="R265" s="71"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A266" s="17"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="57"/>
+      <c r="B266" s="73"/>
+      <c r="C266" s="75"/>
       <c r="D266" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10665,13 +10693,13 @@
       </c>
       <c r="N266" s="42"/>
       <c r="P266" s="42"/>
-      <c r="Q266" s="55"/>
-      <c r="R266" s="58"/>
+      <c r="Q266" s="73"/>
+      <c r="R266" s="71"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A267" s="17"/>
-      <c r="B267" s="55"/>
-      <c r="C267" s="57"/>
+      <c r="B267" s="73"/>
+      <c r="C267" s="75"/>
       <c r="D267" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10700,13 +10728,13 @@
       <c r="N267" s="42"/>
       <c r="O267" s="42"/>
       <c r="P267" s="42"/>
-      <c r="Q267" s="55"/>
-      <c r="R267" s="58"/>
+      <c r="Q267" s="73"/>
+      <c r="R267" s="71"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A268" s="17"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="57"/>
+      <c r="B268" s="73"/>
+      <c r="C268" s="75"/>
       <c r="D268" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10735,13 +10763,13 @@
       <c r="N268" s="42"/>
       <c r="O268" s="42"/>
       <c r="P268" s="42"/>
-      <c r="Q268" s="55"/>
-      <c r="R268" s="58"/>
+      <c r="Q268" s="73"/>
+      <c r="R268" s="71"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A269" s="17"/>
-      <c r="B269" s="55"/>
-      <c r="C269" s="57"/>
+      <c r="B269" s="73"/>
+      <c r="C269" s="75"/>
       <c r="D269" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10770,13 +10798,13 @@
       <c r="N269" s="42"/>
       <c r="O269" s="42"/>
       <c r="P269" s="42"/>
-      <c r="Q269" s="55"/>
-      <c r="R269" s="58"/>
+      <c r="Q269" s="73"/>
+      <c r="R269" s="71"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A270" s="17"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="57"/>
+      <c r="B270" s="73"/>
+      <c r="C270" s="75"/>
       <c r="D270" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10805,13 +10833,13 @@
       <c r="N270" s="42"/>
       <c r="O270" s="42"/>
       <c r="P270" s="42"/>
-      <c r="Q270" s="55"/>
-      <c r="R270" s="58"/>
+      <c r="Q270" s="73"/>
+      <c r="R270" s="71"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
-      <c r="B271" s="55"/>
-      <c r="C271" s="57"/>
+      <c r="B271" s="73"/>
+      <c r="C271" s="75"/>
       <c r="D271" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10840,13 +10868,13 @@
       <c r="N271" s="42"/>
       <c r="O271" s="42"/>
       <c r="P271" s="42"/>
-      <c r="Q271" s="55"/>
-      <c r="R271" s="58"/>
+      <c r="Q271" s="73"/>
+      <c r="R271" s="71"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
-      <c r="B272" s="55"/>
-      <c r="C272" s="57"/>
+      <c r="B272" s="73"/>
+      <c r="C272" s="75"/>
       <c r="D272" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10875,13 +10903,13 @@
       <c r="N272" s="42"/>
       <c r="O272" s="42"/>
       <c r="P272" s="42"/>
-      <c r="Q272" s="55"/>
-      <c r="R272" s="58"/>
+      <c r="Q272" s="73"/>
+      <c r="R272" s="71"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
-      <c r="B273" s="56"/>
-      <c r="C273" s="57"/>
+      <c r="B273" s="74"/>
+      <c r="C273" s="75"/>
       <c r="D273" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10910,8 +10938,8 @@
       <c r="N273" s="42"/>
       <c r="O273" s="42"/>
       <c r="P273" s="42"/>
-      <c r="Q273" s="56"/>
-      <c r="R273" s="58"/>
+      <c r="Q273" s="74"/>
+      <c r="R273" s="71"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G274" s="49"/>
@@ -10971,6 +10999,50 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
+    <mergeCell ref="B244:B258"/>
+    <mergeCell ref="C244:C258"/>
+    <mergeCell ref="Q244:Q258"/>
+    <mergeCell ref="B259:B273"/>
+    <mergeCell ref="C259:C273"/>
+    <mergeCell ref="Q259:Q273"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="Q214:Q228"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="C229:C243"/>
+    <mergeCell ref="Q229:Q243"/>
+    <mergeCell ref="B184:B198"/>
+    <mergeCell ref="C184:C198"/>
+    <mergeCell ref="Q184:Q198"/>
+    <mergeCell ref="B199:B213"/>
+    <mergeCell ref="C199:C213"/>
+    <mergeCell ref="Q199:Q213"/>
+    <mergeCell ref="R94:R273"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="C109:C123"/>
+    <mergeCell ref="Q109:Q123"/>
+    <mergeCell ref="B124:B138"/>
+    <mergeCell ref="C124:C138"/>
+    <mergeCell ref="Q124:Q138"/>
+    <mergeCell ref="B139:B153"/>
+    <mergeCell ref="C139:C153"/>
+    <mergeCell ref="Q139:Q153"/>
+    <mergeCell ref="B154:B168"/>
+    <mergeCell ref="C154:C168"/>
+    <mergeCell ref="Q154:Q168"/>
+    <mergeCell ref="B169:B183"/>
+    <mergeCell ref="C169:C183"/>
+    <mergeCell ref="Q169:Q183"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="Q94:Q108"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
     <mergeCell ref="R4:R93"/>
     <mergeCell ref="A19:A48"/>
     <mergeCell ref="B19:B33"/>
@@ -10987,124 +11059,80 @@
     <mergeCell ref="C64:C78"/>
     <mergeCell ref="Q64:Q78"/>
     <mergeCell ref="B79:B93"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="Q94:Q108"/>
-    <mergeCell ref="R94:R273"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="C109:C123"/>
-    <mergeCell ref="Q109:Q123"/>
-    <mergeCell ref="B124:B138"/>
-    <mergeCell ref="C124:C138"/>
-    <mergeCell ref="Q124:Q138"/>
-    <mergeCell ref="B139:B153"/>
-    <mergeCell ref="C139:C153"/>
-    <mergeCell ref="Q139:Q153"/>
-    <mergeCell ref="B154:B168"/>
-    <mergeCell ref="C154:C168"/>
-    <mergeCell ref="Q154:Q168"/>
-    <mergeCell ref="B169:B183"/>
-    <mergeCell ref="C169:C183"/>
-    <mergeCell ref="Q169:Q183"/>
-    <mergeCell ref="B184:B198"/>
-    <mergeCell ref="C184:C198"/>
-    <mergeCell ref="Q184:Q198"/>
-    <mergeCell ref="B199:B213"/>
-    <mergeCell ref="C199:C213"/>
-    <mergeCell ref="Q199:Q213"/>
-    <mergeCell ref="B214:B228"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="Q214:Q228"/>
-    <mergeCell ref="B229:B243"/>
-    <mergeCell ref="C229:C243"/>
-    <mergeCell ref="Q229:Q243"/>
-    <mergeCell ref="B244:B258"/>
-    <mergeCell ref="C244:C258"/>
-    <mergeCell ref="Q244:Q258"/>
-    <mergeCell ref="B259:B273"/>
-    <mergeCell ref="C259:C273"/>
-    <mergeCell ref="Q259:Q273"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G258">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H276">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
       <formula>N4="FM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
       <formula>N4="DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
       <formula>N4="PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
       <formula>N4="LM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:G273">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>G259="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>G259="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11140,9 +11168,14 @@
     <hyperlink ref="E95" r:id="rId12" display="https://gil.einframe.com/rptprojectoverview.aspx"/>
     <hyperlink ref="E125" r:id="rId13" display="https://gil.einframe.com/reports/trainings/rpttrainingdetailed.aspx"/>
     <hyperlink ref="E126" r:id="rId14" display="https://docs.google.com/spreadsheets/d/1sdLAevUP3Lq_r6JYkmmBUuiB_tW3Zsckb7YJlQqoWhA/edit?usp=sharing"/>
+    <hyperlink ref="E21" r:id="rId15"/>
+    <hyperlink ref="E64" r:id="rId16"/>
+    <hyperlink ref="E109" r:id="rId17"/>
+    <hyperlink ref="E124" r:id="rId18"/>
+    <hyperlink ref="E127" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>
